--- a/econometrics/SEM2/balli/data/nasel.xlsx
+++ b/econometrics/SEM2/balli/data/nasel.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsedoff\Documents\VSCODE\ITiABD-PM22-7-Nikolay-Sedov\econometrics\SEM2\balli\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC5BB0D-74EE-4DE1-BE1F-EFA5C4DCB954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="336" windowWidth="22752" windowHeight="9756"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -176,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -780,8 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -818,58 +823,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -883,14 +888,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -928,7 +936,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1000,7 +1008,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1173,698 +1181,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" customWidth="1"/>
+    <col min="2" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2022</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2023</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1845165</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1841961</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1820076</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1806393</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>634835</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>635854</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>628385</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>622782</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>47937</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>47686</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>47306</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>47015</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>118842</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>118622</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>117858</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>117762</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>43663</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>43601</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>42271</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>42502</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>39816</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>39539</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>38999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>38543</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>25497</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>25282</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>24891</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>24564</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>40863</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>40707</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>40210</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>39685</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>141035</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>140477</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>137136</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>135345</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>40318</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>40073</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>39517</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>39132</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>35732</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>35608</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>35096</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>34822</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>205862</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>205968</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>205343</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>205435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>27398</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>27318</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>27084</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>27038</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>12734</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>12616</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>12391</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>12237</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>21617</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>21458</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>21082</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>20727</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>14453</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>14351</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>14116</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>13859</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>12547</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>12420</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>12150</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>11848</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>23344</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>23163</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>22935</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>22743</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>7709</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>7652</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>7511</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>7209</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>29777</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>29768</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>29869</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>29888</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>18759</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>18707</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>18359</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>18096</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>25043</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>24811</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>24402</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>24093</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>10144</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>10070</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>9876</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>9728</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>18027</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>17880</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>17419</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>17049</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>25392</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>25229</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>24798</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>24400</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>25433</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>25182</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>24807</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>24478</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>26863</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>26727</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>26306</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>25893</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>21861</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>21704</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>21421</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>21090</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>21343</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>21302</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>21135</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>21051</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>12522</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>12473</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>12144</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>11970</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>8358</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>8278</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>8026</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>7793</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>18150</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>18013</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>17605</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>17312</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>29311</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>29109</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>28755</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>28474</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>39350</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>39700</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>40669</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>41960</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>20630</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>20613</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>20204</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>19870</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="9" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
